--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/Load_profiles.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/Load_profiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Desktop\Workfolder\Pyomo\NR_with_Matpower\Pre_cal_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Practice\Network_Reconfiguration\Distribution\Matpower\33Bus_Advanced\Pre_cal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310EAC7-7296-41E4-90B5-10916A59772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FD6D1-664C-4D2C-869D-5293A474A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="5175" windowWidth="17280" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load_profiles" sheetId="1" r:id="rId1"/>
@@ -363,15 +363,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +393,20 @@
       <c r="F1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -410,8 +425,20 @@
       <c r="F2">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0.52518530682611608</v>
+      </c>
+      <c r="H2">
+        <v>0.3404215782865378</v>
+      </c>
+      <c r="I2">
+        <v>0.60282789630036393</v>
+      </c>
+      <c r="J2">
+        <v>0.72474539299907215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -430,8 +457,20 @@
       <c r="F3">
         <v>0.77223427331887207</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.49659805606225832</v>
+      </c>
+      <c r="H3">
+        <v>0.32905364628579559</v>
+      </c>
+      <c r="I3">
+        <v>0.60506590110526304</v>
+      </c>
+      <c r="J3">
+        <v>0.69930360346276232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -450,8 +489,20 @@
       <c r="F4">
         <v>0.7342733188720173</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.4796567448161978</v>
+      </c>
+      <c r="H4">
+        <v>0.32176530802893577</v>
+      </c>
+      <c r="I4">
+        <v>0.60387398806588843</v>
+      </c>
+      <c r="J4">
+        <v>0.69206998324965319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -470,8 +521,20 @@
       <c r="F5">
         <v>0.79067245119305862</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.46886342019858912</v>
+      </c>
+      <c r="H5">
+        <v>0.31902073701444938</v>
+      </c>
+      <c r="I5">
+        <v>0.60190608536486612</v>
+      </c>
+      <c r="J5">
+        <v>0.68236448262055505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -490,8 +553,20 @@
       <c r="F6">
         <v>0.71149674620390457</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.47518080382992506</v>
+      </c>
+      <c r="H6">
+        <v>0.3171268323488135</v>
+      </c>
+      <c r="I6">
+        <v>0.59920055741688916</v>
+      </c>
+      <c r="J6">
+        <v>0.68070403614157682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -510,8 +585,20 @@
       <c r="F7">
         <v>0.72017353579175702</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0.50378354986090501</v>
+      </c>
+      <c r="H7">
+        <v>0.32892487083087002</v>
+      </c>
+      <c r="I7">
+        <v>0.60238792274729758</v>
+      </c>
+      <c r="J7">
+        <v>0.69004730713377371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -530,8 +617,20 @@
       <c r="F8">
         <v>0.74945770065075923</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0.55704017708266773</v>
+      </c>
+      <c r="H8">
+        <v>0.37255132473418712</v>
+      </c>
+      <c r="I8">
+        <v>0.63796046685843799</v>
+      </c>
+      <c r="J8">
+        <v>0.72832455255304707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -550,8 +649,20 @@
       <c r="F9">
         <v>0.80911062906724507</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.64610171194566757</v>
+      </c>
+      <c r="H9">
+        <v>0.48519951589988009</v>
+      </c>
+      <c r="I9">
+        <v>0.73418214425632067</v>
+      </c>
+      <c r="J9">
+        <v>0.79573578561178571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -570,8 +681,20 @@
       <c r="F10">
         <v>0.89696312364425168</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.77991523882756897</v>
+      </c>
+      <c r="H10">
+        <v>0.75650749678773876</v>
+      </c>
+      <c r="I10">
+        <v>0.9178015713508525</v>
+      </c>
+      <c r="J10">
+        <v>0.88290591614010583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -590,8 +713,20 @@
       <c r="F11">
         <v>0.95553145336225598</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.89812965913221721</v>
+      </c>
+      <c r="H11">
+        <v>0.94981466404199655</v>
+      </c>
+      <c r="I11">
+        <v>0.99194342465588037</v>
+      </c>
+      <c r="J11">
+        <v>0.95971560139917367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -610,8 +745,20 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.96547829745259117</v>
+      </c>
+      <c r="H12">
+        <v>0.99482234741394115</v>
+      </c>
+      <c r="I12">
+        <v>0.99393211979952001</v>
+      </c>
+      <c r="J12">
+        <v>0.97959426768692459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -630,8 +777,20 @@
       <c r="F13">
         <v>0.99023861171366589</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.98397516550079978</v>
+      </c>
+      <c r="H13">
+        <v>0.99052878639834041</v>
+      </c>
+      <c r="I13">
+        <v>0.98347918653671351</v>
+      </c>
+      <c r="J13">
+        <v>0.98845372693133038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -650,8 +809,20 @@
       <c r="F14">
         <v>0.97830802603036882</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.97728039544059642</v>
+      </c>
+      <c r="H14">
+        <v>0.96248421769729153</v>
+      </c>
+      <c r="I14">
+        <v>0.88920835876774174</v>
+      </c>
+      <c r="J14">
+        <v>0.95348958782725035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -670,8 +841,20 @@
       <c r="F15">
         <v>0.97180043383947934</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0.99624152689760437</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.96471936211246978</v>
+      </c>
+      <c r="J15">
+        <v>0.9851901214108939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -690,8 +873,20 @@
       <c r="F16">
         <v>0.99023861171366589</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.96317073612372606</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -710,8 +905,20 @@
       <c r="F17">
         <v>0.94685466377440342</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.9912581457664692</v>
+      </c>
+      <c r="H17">
+        <v>0.87466951814226823</v>
+      </c>
+      <c r="I17">
+        <v>0.98345696714429454</v>
+      </c>
+      <c r="J17">
+        <v>0.99481367852252889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -730,8 +937,20 @@
       <c r="F18">
         <v>0.94468546637744033</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0.98087940951780084</v>
+      </c>
+      <c r="H18">
+        <v>0.73693849079734353</v>
+      </c>
+      <c r="I18">
+        <v>0.96441885665778093</v>
+      </c>
+      <c r="J18">
+        <v>0.98997468624953322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -750,8 +969,20 @@
       <c r="F19">
         <v>0.95227765726681124</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.94823389286459603</v>
+      </c>
+      <c r="H19">
+        <v>0.58970945634725236</v>
+      </c>
+      <c r="I19">
+        <v>0.87291589093555333</v>
+      </c>
+      <c r="J19">
+        <v>0.92944627858053575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -770,8 +1001,20 @@
       <c r="F20">
         <v>0.93926247288503251</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.8665599006673772</v>
+      </c>
+      <c r="H20">
+        <v>0.51212636368427111</v>
+      </c>
+      <c r="I20">
+        <v>0.79394964664733692</v>
+      </c>
+      <c r="J20">
+        <v>0.84918814022604905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -790,8 +1033,20 @@
       <c r="F21">
         <v>0.9316702819956616</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0.82450689334576532</v>
+      </c>
+      <c r="H21">
+        <v>0.47790767356629976</v>
+      </c>
+      <c r="I21">
+        <v>0.74554682017277241</v>
+      </c>
+      <c r="J21">
+        <v>0.8165824031069655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -810,8 +1065,20 @@
       <c r="F22">
         <v>0.92841648590021697</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0.76314083432525326</v>
+      </c>
+      <c r="H22">
+        <v>0.44610454616135586</v>
+      </c>
+      <c r="I22">
+        <v>0.70215588421592956</v>
+      </c>
+      <c r="J22">
+        <v>0.79647756910832879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -830,8 +1097,20 @@
       <c r="F23">
         <v>0.94685466377440342</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0.68747451619849742</v>
+      </c>
+      <c r="H23">
+        <v>0.40694591386081808</v>
+      </c>
+      <c r="I23">
+        <v>0.66873050445019888</v>
+      </c>
+      <c r="J23">
+        <v>0.76108954362100101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -850,8 +1129,20 @@
       <c r="F24">
         <v>0.92407809110629069</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0.61036642381153217</v>
+      </c>
+      <c r="H24">
+        <v>0.36737547349672278</v>
+      </c>
+      <c r="I24">
+        <v>0.64755373115761805</v>
+      </c>
+      <c r="J24">
+        <v>0.73965789913453572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -869,6 +1160,18 @@
       </c>
       <c r="F25">
         <v>0.83839479392624727</v>
+      </c>
+      <c r="G25">
+        <v>0.57273608110436269</v>
+      </c>
+      <c r="H25">
+        <v>0.3529129356862995</v>
+      </c>
+      <c r="I25">
+        <v>0.64364518020862449</v>
+      </c>
+      <c r="J25">
+        <v>0.74184374336148573</v>
       </c>
     </row>
   </sheetData>
